--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2135406.045499812</v>
+        <v>-2137403.718512658</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30728149646772</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>135.7195066546172</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>21.77757162324266</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>83.00659302131696</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8335894988188579</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>296.3444242141062</v>
+        <v>362.89044269976</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.37285828736543</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>70.16758029820794</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>161.5091602569993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>93.76239265371781</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>122.6519788371605</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>20.51759809046959</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>187.5791331002726</v>
+        <v>236.8013675689602</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>88.52637154600349</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>66.14085215535397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.5696025109798</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>3.342864261013628</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373736</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,19 +2530,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,10 +2725,10 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I28" t="n">
         <v>42.28735533463131</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329113</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,19 +4189,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1172.829108994408</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C2" t="n">
-        <v>1172.829108994408</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D2" t="n">
-        <v>814.5634103876573</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E2" t="n">
-        <v>814.5634103876573</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2286.395323758539</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2286.395323758539</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>2286.395323758539</v>
       </c>
       <c r="X2" t="n">
-        <v>1949.568281034341</v>
+        <v>1912.929565497459</v>
       </c>
       <c r="Y2" t="n">
-        <v>1559.428949058529</v>
+        <v>1912.929565497459</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.4943954681378</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="C4" t="n">
-        <v>506.4943954681378</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>422.030029759985</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>274.1169361775919</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>274.1169361775919</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>274.1169361775919</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>727.2869746116679</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>727.2869746116679</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>727.2869746116679</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>727.2869746116679</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W4" t="n">
-        <v>727.2869746116679</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X4" t="n">
-        <v>727.2869746116679</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.4943954681378</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.850788876759</v>
+        <v>2088.375092014473</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.850788876759</v>
+        <v>2088.375092014473</v>
       </c>
       <c r="D5" t="n">
-        <v>1258.850788876759</v>
+        <v>1730.109393407723</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y5" t="n">
-        <v>1645.450628940881</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,43 +4650,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1108.73014849504</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>697.7442437054328</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>638.1631929376285</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>348.7460229006679</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,22 +5030,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.699150526737</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.9065713832073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4037.957270257085</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>3869.021087329178</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>3869.021087329178</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>3721.107993746785</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>4637.069157803799</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>4447.595285985341</v>
+        <v>970.5943311967533</v>
       </c>
       <c r="W16" t="n">
-        <v>4447.595285985341</v>
+        <v>970.5943311967533</v>
       </c>
       <c r="X16" t="n">
-        <v>4219.605735087324</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y16" t="n">
-        <v>4219.605735087324</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="17">
@@ -5540,13 +5540,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>502.7260840420538</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C19" t="n">
-        <v>502.7260840420538</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.156678913841</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>905.1671280158237</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y19" t="n">
-        <v>684.3745488722935</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.1316371486756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C22" t="n">
-        <v>560.1954542207687</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1389.250005395297</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1165.464590184802</v>
+        <v>1295.619629906774</v>
       </c>
       <c r="U22" t="n">
-        <v>1165.464590184802</v>
+        <v>1006.490991120332</v>
       </c>
       <c r="V22" t="n">
-        <v>910.7801019789154</v>
+        <v>751.8065029144454</v>
       </c>
       <c r="W22" t="n">
-        <v>910.7801019789154</v>
+        <v>751.8065029144454</v>
       </c>
       <c r="X22" t="n">
-        <v>910.7801019789154</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="Y22" t="n">
-        <v>910.7801019789154</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D25" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525404</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N28" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P28" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
         <v>2038.520840384657</v>
@@ -6409,25 +6409,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6646,13 +6646,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6664,7 +6664,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,19 +6783,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6841,13 +6841,13 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,10 +6889,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,10 +7312,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7330,34 +7330,34 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1711.385417156675</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,28 +7552,28 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7649,10 +7649,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7731,19 +7731,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.65987261462459</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,28 +9480,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>358.3520020925043</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>148.1350559470645</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>242.9997743936051</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>116.908739053196</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5687642452437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>115.5046608536721</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.30331446917741</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>126.8379013949697</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.3119494512</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644278</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.1920572985676</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>64.55851022355543</v>
+        <v>15.33627575486776</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08910147220887</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891801</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,13 +23947,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>89.35120747262341</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.2046967973756</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1277900.689534898</v>
+        <v>1277900.689534897</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1356179.194060528</v>
+        <v>1356179.194060527</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1356179.194060527</v>
+        <v>1356179.194060528</v>
       </c>
     </row>
     <row r="9">
@@ -26314,10 +26314,10 @@
         <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>19551.45298688544</v>
@@ -26329,28 +26329,28 @@
         <v>19551.45298688543</v>
       </c>
       <c r="H2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.6337742231</v>
+        <v>99193.63377422311</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007459</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.731656007461</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="K4" t="n">
         <v>30335.51889732794</v>
       </c>
-      <c r="J4" t="n">
-        <v>30335.51889732794</v>
-      </c>
-      <c r="K4" t="n">
-        <v>30335.51889732797</v>
-      </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753628.6667043568</v>
+        <v>-753842.0786942355</v>
       </c>
       <c r="C6" t="n">
         <v>-210250.0825327232</v>
@@ -26528,22 +26528,22 @@
         <v>-210250.0825327232</v>
       </c>
       <c r="E6" t="n">
-        <v>-605512.6410947348</v>
+        <v>-605610.1002207071</v>
       </c>
       <c r="F6" t="n">
-        <v>-80352.60461783866</v>
+        <v>-80450.06374381081</v>
       </c>
       <c r="G6" t="n">
-        <v>-80352.60461783866</v>
+        <v>-80450.06374381088</v>
       </c>
       <c r="H6" t="n">
-        <v>-80352.60461783869</v>
+        <v>-80450.06374381084</v>
       </c>
       <c r="I6" t="n">
         <v>-162030.0925744587</v>
       </c>
       <c r="J6" t="n">
-        <v>-283947.7996633393</v>
+        <v>-283947.7996633392</v>
       </c>
       <c r="K6" t="n">
         <v>-107524.5804707463</v>
@@ -26561,7 +26561,7 @@
         <v>-107524.5804707462</v>
       </c>
       <c r="P6" t="n">
-        <v>-107524.5804707463</v>
+        <v>-107524.5804707462</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.5286657127599</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.16429582047819</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>85.58594585815558</v>
+        <v>19.03992737250178</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.4591218945719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>181.97006302562</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>252.2750097637957</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>275.9687080247512</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>135.9689721019664</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>250.7532875461493</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>668.7763791429707</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37151,10 +37151,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,13 +37312,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>355.2284708785892</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>553.4241514440714</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38099,7 +38099,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>399.2724412943041</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
